--- a/details.xlsx
+++ b/details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eastkambhampadufamily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1A821-FAEA-4EDD-BA51-275BA0356BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED57F54-E097-4BB0-A380-3C76084BD28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" xr2:uid="{F946594D-4D92-4E4C-98C8-74DE867394A4}"/>
   </bookViews>
@@ -3122,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86D97D0-50FF-4C4D-86B5-1601119423E2}">
   <dimension ref="A1:M508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="I199" sqref="I199"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10360,9 +10360,7 @@
       </c>
     </row>
     <row r="224" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
-        <v>226</v>
-      </c>
+      <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>

--- a/details.xlsx
+++ b/details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eastkambhampadufamily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5668AA-C4DD-4C98-97A4-CE6AC337DBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F63FD-8D04-4B8F-B0D7-0230471A0D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" activeTab="8" xr2:uid="{F946594D-4D92-4E4C-98C8-74DE867394A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" xr2:uid="{F946594D-4D92-4E4C-98C8-74DE867394A4}"/>
   </bookViews>
   <sheets>
     <sheet name="kanagala" sheetId="1" r:id="rId1"/>
@@ -4253,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86D97D0-50FF-4C4D-86B5-1601119423E2}">
   <dimension ref="A1:M508"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24151,7 +24151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE8DE7D-6ECA-4967-8863-139AE88A32A5}">
   <dimension ref="A1:N323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
